--- a/data/webdata.xlsx
+++ b/data/webdata.xlsx
@@ -1,99 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My_code\AutoTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB9AA4BF-38A6-47D2-A3A6-22847A948B5E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81C4BF2-5C42-496A-817D-3ADE1FAED061}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2316" yWindow="3528" windowWidth="17280" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2724" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
   <si>
     <t>username</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>password</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mik3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>123456789@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mik4</t>
-  </si>
-  <si>
-    <t>123456790@qq.com</t>
-  </si>
-  <si>
-    <t>mik5</t>
-  </si>
-  <si>
-    <t>123456791@qq.com</t>
-  </si>
-  <si>
-    <t>mik6</t>
-  </si>
-  <si>
-    <t>123456792@qq.com</t>
-  </si>
-  <si>
     <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15735755796</t>
+    <t>mik_46</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>15735755797</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15735755798</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15735755799</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>mik_47</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,14 +60,6 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="等线"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -134,19 +80,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -424,98 +367,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="8.88671875" style="2"/>
-    <col min="3" max="3" width="12.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{C26F748C-6A4D-43AE-AD44-DAC112F77961}"/>
-    <hyperlink ref="D3" r:id="rId2" display="123456789@qq.com" xr:uid="{099A5299-6D07-4FB5-B259-69434758AB56}"/>
-    <hyperlink ref="D4" r:id="rId3" display="123456789@qq.com" xr:uid="{67052C35-4700-4785-A2C0-E992B5657559}"/>
-    <hyperlink ref="D5" r:id="rId4" display="123456789@qq.com" xr:uid="{2AAEE568-852A-4908-9AE4-0498218820D9}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/webdata.xlsx
+++ b/data/webdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My_code\AutoTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D81C4BF2-5C42-496A-817D-3ADE1FAED061}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F8BDBE-72F6-4A72-964B-1166D468295A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2724" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,11 +36,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mik_46</t>
+    <t>mik_50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mik_47</t>
+    <t>mik_51</t>
   </si>
 </sst>
 </file>
@@ -370,7 +370,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/webdata.xlsx
+++ b/data/webdata.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My_code\AutoTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1F8BDBE-72F6-4A72-964B-1166D468295A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC3738-6855-4883-9012-421413EBCC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2724" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
   <si>
     <t>password</t>
   </si>
@@ -36,11 +36,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mik_50</t>
+    <t>mik_55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mik_51</t>
+    <t>mik_56</t>
+  </si>
+  <si>
+    <t>mik_57</t>
+  </si>
+  <si>
+    <t>mik_58</t>
   </si>
 </sst>
 </file>
@@ -367,10 +373,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -402,6 +408,22 @@
         <v>1</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/webdata.xlsx
+++ b/data/webdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My_code\AutoTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FFC3738-6855-4883-9012-421413EBCC53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDD82C0-BA0E-4410-9808-BFE67750F2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2724" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,17 +36,17 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mik_55</t>
+    <t>mik_59</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mik_56</t>
-  </si>
-  <si>
-    <t>mik_57</t>
-  </si>
-  <si>
-    <t>mik_58</t>
+    <t>mik_60</t>
+  </si>
+  <si>
+    <t>mik_61</t>
+  </si>
+  <si>
+    <t>mik_62</t>
   </si>
 </sst>
 </file>
@@ -376,7 +376,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/data/webdata.xlsx
+++ b/data/webdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\My_code\AutoTest\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EDD82C0-BA0E-4410-9808-BFE67750F2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{721DF546-9608-42D0-A2F4-1FFFD9131DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2724" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>password</t>
   </si>
@@ -36,17 +36,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mik_59</t>
+    <t>mik_73</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mik_60</t>
-  </si>
-  <si>
-    <t>mik_61</t>
-  </si>
-  <si>
-    <t>mik_62</t>
+    <t>mik_74</t>
   </si>
 </sst>
 </file>
@@ -373,7 +367,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -408,22 +402,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
